--- a/配置表/MainFish.xlsx
+++ b/配置表/MainFish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E79C9-94F6-4EEE-A649-B14A88A6D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FD90D9-51AA-4070-9776-7CEE57AB747A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="286">
   <si>
     <t>id</t>
   </si>
@@ -546,45 +546,6 @@
     <t>Fish/fish01/1012501</t>
   </si>
   <si>
-    <t>Fish/fish01/1012601</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012701</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012801</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1012901</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013001</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013101</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013201</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013301</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013401</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013501</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013601</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013701</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013801</t>
-  </si>
-  <si>
     <t>Fish/fish02/1020101</t>
   </si>
   <si>
@@ -657,90 +618,12 @@
     <t>Fish/fish02/1022501</t>
   </si>
   <si>
-    <t>Fish/fish02/1022601</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1022701</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1022801</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1022901</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023001</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023101</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023201</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023301</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023401</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023501</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023601</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023701</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023801</t>
-  </si>
-  <si>
     <t>Fish/fish03/1032401</t>
   </si>
   <si>
     <t>Fish/fish03/1032501</t>
   </si>
   <si>
-    <t>Fish/fish03/1032601</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032701</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032801</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032901</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033001</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033101</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033201</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033301</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033401</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033501</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033601</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033701</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033801</t>
-  </si>
-  <si>
     <t>秋刀鱼</t>
   </si>
   <si>
@@ -852,120 +735,6 @@
     <t>睡鲨</t>
   </si>
   <si>
-    <t>霓虹脂鲤</t>
-  </si>
-  <si>
-    <t>小蜜蜂鱼</t>
-  </si>
-  <si>
-    <t>白斑托比</t>
-  </si>
-  <si>
-    <t>大鳞脂鲤</t>
-  </si>
-  <si>
-    <t>血鳍脂鲤</t>
-  </si>
-  <si>
-    <t>埃及神仙鱼</t>
-  </si>
-  <si>
-    <t>河鲈</t>
-  </si>
-  <si>
-    <t>底栖腔鲈</t>
-  </si>
-  <si>
-    <t>黑斑太阳鱼</t>
-  </si>
-  <si>
-    <t>杜父鱼</t>
-  </si>
-  <si>
-    <t>银鲤</t>
-  </si>
-  <si>
-    <t>鹰鱼</t>
-  </si>
-  <si>
-    <t>扁脂鲤</t>
-  </si>
-  <si>
-    <t>香附鲤</t>
-  </si>
-  <si>
-    <t>黑珍珠鳉鱼</t>
-  </si>
-  <si>
-    <t>扳机鱼</t>
-  </si>
-  <si>
-    <t>贵玉屈鱼</t>
-  </si>
-  <si>
-    <t>鲳参鱼</t>
-  </si>
-  <si>
-    <t>克利奥鲈鱼</t>
-  </si>
-  <si>
-    <t>油鱼</t>
-  </si>
-  <si>
-    <t>碧古鱼</t>
-  </si>
-  <si>
-    <t>鲤鱼</t>
-  </si>
-  <si>
-    <t>舌齿鲈</t>
-  </si>
-  <si>
-    <t>灰鲈鱼</t>
-  </si>
-  <si>
-    <t>小眼须雅罗</t>
-  </si>
-  <si>
-    <t>大眼鰤鲈</t>
-  </si>
-  <si>
-    <t>亚马逊鳓</t>
-  </si>
-  <si>
-    <t>雅罗鱼</t>
-  </si>
-  <si>
-    <t>丁鱥</t>
-  </si>
-  <si>
-    <t>黑鱼</t>
-  </si>
-  <si>
-    <t>弓鳍鱼</t>
-  </si>
-  <si>
-    <t>大顎小脂鯉</t>
-  </si>
-  <si>
-    <t>淡水鳕</t>
-  </si>
-  <si>
-    <t>湖鳟鱼</t>
-  </si>
-  <si>
-    <t>梭鲈</t>
-  </si>
-  <si>
-    <t>大丝足鲈</t>
-  </si>
-  <si>
-    <t>多鳍鱼</t>
-  </si>
-  <si>
-    <t>欧鳇</t>
-  </si>
-  <si>
     <t>米诺鱼</t>
   </si>
   <si>
@@ -1059,19 +828,10 @@
     <t>帆蜥鱼</t>
   </si>
   <si>
-    <t>大海鲢</t>
-  </si>
-  <si>
-    <t>湄公河巨鲶</t>
-  </si>
-  <si>
     <t>深海鮟鱇鱼</t>
   </si>
   <si>
     <t>拿破仑鱼</t>
-  </si>
-  <si>
-    <t>贝加尔白鲑</t>
   </si>
   <si>
     <t>帝王鲑</t>
@@ -1151,6 +911,26 @@
   </si>
   <si>
     <t>Fish/fish03/1032301</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>Fish/fish1000002</t>
+  </si>
+  <si>
+    <t>莉安夕</t>
+  </si>
+  <si>
+    <t>101|102|103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年大白鲨</t>
+  </si>
+  <si>
+    <t>//1000002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1505,11 +1285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79:H116"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1598,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1607,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13180</v>
+        <v>25884</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>133</v>
@@ -1633,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -1642,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12704</v>
+        <v>23979</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>134</v>
@@ -1668,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1677,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12228</v>
+        <v>22073</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>135</v>
@@ -1703,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1712,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11751</v>
+        <v>20168</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>136</v>
@@ -1738,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -1747,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11275</v>
+        <v>9369</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>137</v>
@@ -1773,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1782,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10798</v>
+        <v>8893</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
         <v>138</v>
@@ -1808,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -1817,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10322</v>
+        <v>8416</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
         <v>139</v>
@@ -1843,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -1852,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9846</v>
+        <v>7940</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
         <v>140</v>
@@ -1878,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -1887,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9369</v>
+        <v>7464</v>
       </c>
       <c r="G11">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
         <v>141</v>
@@ -1913,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D12">
         <v>38</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>8893</v>
+        <v>13498</v>
       </c>
       <c r="G12">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
         <v>142</v>
@@ -1948,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13">
         <v>42</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8416</v>
+        <v>11592</v>
       </c>
       <c r="G13">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="H13" t="s">
         <v>143</v>
@@ -1983,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D14">
         <v>44</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7940</v>
+        <v>9687</v>
       </c>
       <c r="G14">
-        <v>160</v>
+        <v>760</v>
       </c>
       <c r="H14" t="s">
         <v>144</v>
@@ -2018,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>47</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>7464</v>
+        <v>4129</v>
       </c>
       <c r="G15">
-        <v>208</v>
+        <v>880</v>
       </c>
       <c r="H15" t="s">
         <v>145</v>
@@ -2053,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -2062,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6987</v>
+        <v>3652</v>
       </c>
       <c r="G16">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="H16" t="s">
         <v>146</v>
@@ -2088,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -2097,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6511</v>
+        <v>3176</v>
       </c>
       <c r="G17">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="H17" t="s">
         <v>147</v>
@@ -2123,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="D18">
         <v>62</v>
@@ -2132,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>6034</v>
+        <v>2700</v>
       </c>
       <c r="G18">
-        <v>480</v>
+        <v>1920</v>
       </c>
       <c r="H18" t="s">
         <v>148</v>
@@ -2164,13 +1944,13 @@
         <v>64</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>5558</v>
+        <v>3070</v>
       </c>
       <c r="G19">
-        <v>640</v>
+        <v>2176</v>
       </c>
       <c r="H19" t="s">
         <v>149</v>
@@ -2193,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D20">
         <v>70</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>5082</v>
+        <v>2510</v>
       </c>
       <c r="G20">
-        <v>720</v>
+        <v>2816</v>
       </c>
       <c r="H20" t="s">
         <v>150</v>
@@ -2228,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="D21">
         <v>75</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4605</v>
+        <v>1950</v>
       </c>
       <c r="G21">
-        <v>800</v>
+        <v>3328</v>
       </c>
       <c r="H21" t="s">
         <v>151</v>
@@ -2263,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D22">
         <v>75</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4129</v>
+        <v>765</v>
       </c>
       <c r="G22">
-        <v>880</v>
+        <v>3840</v>
       </c>
       <c r="H22" t="s">
         <v>152</v>
@@ -2298,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>77</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3652</v>
+        <v>625</v>
       </c>
       <c r="G23">
-        <v>960</v>
+        <v>4608</v>
       </c>
       <c r="H23" t="s">
         <v>153</v>
@@ -2333,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D24">
         <v>80</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3176</v>
+        <v>391</v>
       </c>
       <c r="G24">
-        <v>1200</v>
+        <v>5248</v>
       </c>
       <c r="H24" t="s">
         <v>154</v>
@@ -2354,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>101</v>
@@ -2368,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D25">
         <v>90</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2700</v>
+        <v>269</v>
       </c>
       <c r="G25">
-        <v>1920</v>
+        <v>8960</v>
       </c>
       <c r="H25" t="s">
         <v>155</v>
@@ -2389,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>101</v>
@@ -2403,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1605</v>
+        <v>99</v>
       </c>
       <c r="G26">
-        <v>2048</v>
+        <v>12800</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -2424,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>101</v>
@@ -2438,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D27">
         <v>104</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1465</v>
+        <v>80</v>
       </c>
       <c r="G27">
-        <v>2304</v>
+        <v>17280</v>
       </c>
       <c r="H27" t="s">
         <v>157</v>
@@ -2459,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>101</v>
@@ -2467,25 +2247,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1012601</v>
+        <v>1020101</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>247</v>
+      <c r="C28" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D28">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1325</v>
-      </c>
-      <c r="G28">
-        <v>2560</v>
+        <v>25884</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>158</v>
@@ -2497,32 +2277,32 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1012701</v>
+        <v>1020201</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>248</v>
+      <c r="C29" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1185</v>
-      </c>
-      <c r="G29">
-        <v>3072</v>
-      </c>
-      <c r="H29" s="1" t="s">
+        <v>23979</v>
+      </c>
+      <c r="G29" s="2">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
         <v>159</v>
       </c>
       <c r="I29">
@@ -2532,32 +2312,32 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1012801</v>
+        <v>1020301</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
-        <v>249</v>
+      <c r="C30" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D30">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1045</v>
-      </c>
-      <c r="G30">
-        <v>3072</v>
-      </c>
-      <c r="H30" s="1" t="s">
+        <v>22073</v>
+      </c>
+      <c r="G30" s="2">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
         <v>160</v>
       </c>
       <c r="I30">
@@ -2567,32 +2347,32 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1012901</v>
+        <v>1020401</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>250</v>
+      <c r="C31" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>905</v>
-      </c>
-      <c r="G31">
-        <v>3584</v>
-      </c>
-      <c r="H31" s="1" t="s">
+        <v>20168</v>
+      </c>
+      <c r="G31" s="2">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
         <v>161</v>
       </c>
       <c r="I31">
@@ -2602,32 +2382,32 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1013001</v>
+        <v>1020501</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
-        <v>251</v>
+      <c r="C32" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D32">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>765</v>
-      </c>
-      <c r="G32">
-        <v>3840</v>
-      </c>
-      <c r="H32" s="1" t="s">
+        <v>9369</v>
+      </c>
+      <c r="G32" s="2">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
         <v>162</v>
       </c>
       <c r="I32">
@@ -2637,32 +2417,32 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1013101</v>
+        <v>1020601</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>252</v>
+      <c r="C33" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D33">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>625</v>
-      </c>
-      <c r="G33">
-        <v>4608</v>
-      </c>
-      <c r="H33" s="1" t="s">
+        <v>8893</v>
+      </c>
+      <c r="G33" s="2">
+        <v>104</v>
+      </c>
+      <c r="H33" t="s">
         <v>163</v>
       </c>
       <c r="I33">
@@ -2672,32 +2452,32 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1013201</v>
+        <v>1020701</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>253</v>
+      <c r="C34" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D34">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>221</v>
-      </c>
-      <c r="G34">
-        <v>5120</v>
-      </c>
-      <c r="H34" s="1" t="s">
+        <v>8416</v>
+      </c>
+      <c r="G34" s="2">
+        <v>112</v>
+      </c>
+      <c r="H34" t="s">
         <v>164</v>
       </c>
       <c r="I34">
@@ -2707,32 +2487,32 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1013301</v>
+        <v>1020801</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
-        <v>254</v>
+      <c r="C35" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D35">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>170</v>
-      </c>
-      <c r="G35">
-        <v>5376</v>
-      </c>
-      <c r="H35" s="1" t="s">
+        <v>7940</v>
+      </c>
+      <c r="G35" s="2">
+        <v>160</v>
+      </c>
+      <c r="H35" t="s">
         <v>165</v>
       </c>
       <c r="I35">
@@ -2742,32 +2522,32 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1013401</v>
+        <v>1020901</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>255</v>
+      <c r="C36" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D36">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>148</v>
-      </c>
-      <c r="G36">
-        <v>7680</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>7464</v>
+      </c>
+      <c r="G36" s="2">
+        <v>208</v>
+      </c>
+      <c r="H36" t="s">
         <v>166</v>
       </c>
       <c r="I36">
@@ -2777,173 +2557,173 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1013501</v>
+        <v>1021001</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>256</v>
+      <c r="C37" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D37">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>121</v>
-      </c>
-      <c r="G37">
-        <v>10240</v>
-      </c>
-      <c r="H37" s="1" t="s">
+        <v>13498</v>
+      </c>
+      <c r="G37" s="2">
+        <v>400</v>
+      </c>
+      <c r="H37" t="s">
         <v>167</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1013601</v>
+        <v>1021101</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>75</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>11592</v>
+      </c>
+      <c r="G38" s="2">
+        <v>560</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D38">
-        <v>358</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>99</v>
-      </c>
-      <c r="G38">
-        <v>12800</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1013701</v>
+        <v>1021201</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
-        <v>258</v>
+      <c r="C39" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="D39">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>45</v>
-      </c>
-      <c r="G39">
-        <v>15360</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>169</v>
+        <v>9687</v>
+      </c>
+      <c r="G39" s="2">
+        <v>760</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1013801</v>
+        <v>1021301</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
-        <v>259</v>
+      <c r="C40" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D40">
-        <v>626</v>
+        <v>80</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40">
-        <v>19200</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>170</v>
+        <v>4129</v>
+      </c>
+      <c r="G40" s="2">
+        <v>880</v>
+      </c>
+      <c r="H40" t="s">
+        <v>169</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>1020101</v>
+        <v>1021401</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>13180</v>
+        <v>3652</v>
       </c>
       <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>171</v>
+        <v>960</v>
+      </c>
+      <c r="H41" t="s">
+        <v>170</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2957,28 +2737,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>1020201</v>
+        <v>1021501</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>12704</v>
+        <v>3176</v>
       </c>
       <c r="G42" s="2">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2992,28 +2772,28 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>1020301</v>
+        <v>1021601</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>12228</v>
+        <v>2700</v>
       </c>
       <c r="G43" s="2">
-        <v>12</v>
+        <v>1920</v>
       </c>
       <c r="H43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -3027,28 +2807,28 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>1020401</v>
+        <v>1021701</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>11751</v>
+        <v>3070</v>
       </c>
       <c r="G44" s="2">
-        <v>14</v>
+        <v>2176</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3062,28 +2842,28 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>1020501</v>
+        <v>1021801</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>11275</v>
+        <v>2510</v>
       </c>
       <c r="G45" s="2">
-        <v>18</v>
+        <v>2816</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -3097,28 +2877,28 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>1020601</v>
+        <v>1021901</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>10798</v>
+        <v>1950</v>
       </c>
       <c r="G46" s="2">
-        <v>24</v>
+        <v>3328</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3132,28 +2912,28 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>1020701</v>
+        <v>1022001</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>10322</v>
+        <v>765</v>
       </c>
       <c r="G47" s="2">
-        <v>36</v>
+        <v>3840</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3167,28 +2947,28 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>1020801</v>
+        <v>1022101</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>9846</v>
+        <v>625</v>
       </c>
       <c r="G48" s="2">
-        <v>42</v>
+        <v>4608</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3202,34 +2982,34 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>1020901</v>
+        <v>1022201</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>9369</v>
+        <v>391</v>
       </c>
       <c r="G49" s="2">
-        <v>56</v>
+        <v>5248</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>102</v>
@@ -3237,34 +3017,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>1021001</v>
+        <v>1022301</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50">
+        <v>323</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>269</v>
       </c>
-      <c r="D50">
-        <v>36</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>8893</v>
-      </c>
       <c r="G50" s="2">
-        <v>104</v>
+        <v>8960</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>102</v>
@@ -3272,34 +3052,34 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>1021101</v>
+        <v>1022401</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>270</v>
+      <c r="C51" t="s">
+        <v>219</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>410</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>8416</v>
+        <v>99</v>
       </c>
       <c r="G51" s="2">
-        <v>112</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>337</v>
+        <v>12800</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>102</v>
@@ -3307,25 +3087,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>1021201</v>
+        <v>1022501</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>271</v>
+      <c r="C52" t="s">
+        <v>282</v>
       </c>
       <c r="D52">
-        <v>42</v>
+        <v>450</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>7940</v>
+        <v>80</v>
       </c>
       <c r="G52" s="2">
-        <v>160</v>
+        <v>17280</v>
       </c>
       <c r="H52" t="s">
         <v>181</v>
@@ -3334,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>102</v>
@@ -3342,28 +3122,28 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>1021301</v>
+        <v>1030101</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>272</v>
+      <c r="C53" t="s">
+        <v>186</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>7464</v>
+        <v>25884</v>
       </c>
       <c r="G53" s="2">
-        <v>208</v>
-      </c>
-      <c r="H53" t="s">
-        <v>182</v>
+        <v>7</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3372,33 +3152,33 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>1021401</v>
+        <v>1030201</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>273</v>
+      <c r="C54" t="s">
+        <v>224</v>
       </c>
       <c r="D54">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>6987</v>
+        <v>23979</v>
       </c>
       <c r="G54" s="2">
-        <v>320</v>
-      </c>
-      <c r="H54" t="s">
-        <v>183</v>
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3407,33 +3187,33 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>1021501</v>
+        <v>1030301</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>274</v>
+      <c r="C55" t="s">
+        <v>187</v>
       </c>
       <c r="D55">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>6511</v>
+        <v>22073</v>
       </c>
       <c r="G55" s="2">
-        <v>480</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3442,33 +3222,33 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>1021601</v>
+        <v>1030401</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>275</v>
+      <c r="C56" t="s">
+        <v>190</v>
       </c>
       <c r="D56">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>6034</v>
+        <v>20168</v>
       </c>
       <c r="G56" s="2">
-        <v>480</v>
+        <v>39</v>
       </c>
       <c r="H56" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3477,33 +3257,33 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>1021701</v>
+        <v>1030501</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>276</v>
+      <c r="C57" t="s">
+        <v>193</v>
       </c>
       <c r="D57">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>5558</v>
+        <v>9369</v>
       </c>
       <c r="G57" s="2">
-        <v>640</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3512,33 +3292,33 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>1021801</v>
+        <v>1030601</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>277</v>
+      <c r="C58" t="s">
+        <v>231</v>
       </c>
       <c r="D58">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>5082</v>
+        <v>8893</v>
       </c>
       <c r="G58" s="2">
-        <v>720</v>
+        <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3547,33 +3327,33 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>1021901</v>
+        <v>1030701</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>278</v>
+      <c r="C59" t="s">
+        <v>194</v>
       </c>
       <c r="D59">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>4605</v>
+        <v>8416</v>
       </c>
       <c r="G59" s="2">
-        <v>800</v>
+        <v>112</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3582,33 +3362,33 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>1022001</v>
+        <v>1030801</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>279</v>
+      <c r="C60" t="s">
+        <v>233</v>
       </c>
       <c r="D60">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>4129</v>
+        <v>7940</v>
       </c>
       <c r="G60" s="2">
-        <v>880</v>
+        <v>160</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3617,33 +3397,33 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>1022101</v>
+        <v>1030901</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>280</v>
+      <c r="C61" t="s">
+        <v>235</v>
       </c>
       <c r="D61">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>3652</v>
+        <v>7464</v>
       </c>
       <c r="G61" s="2">
-        <v>960</v>
+        <v>208</v>
       </c>
       <c r="H61" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3652,33 +3432,33 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>1022201</v>
+        <v>1031001</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>281</v>
+      <c r="C62" t="s">
+        <v>236</v>
       </c>
       <c r="D62">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>3176</v>
+        <v>13498</v>
       </c>
       <c r="G62" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3687,33 +3467,33 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>1022301</v>
+        <v>1031101</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>282</v>
+      <c r="C63" t="s">
+        <v>199</v>
       </c>
       <c r="D63">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>2700</v>
+        <v>11592</v>
       </c>
       <c r="G63" s="2">
-        <v>1920</v>
+        <v>560</v>
       </c>
       <c r="H63" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -3722,33 +3502,33 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>1022401</v>
+        <v>1031201</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>283</v>
+      <c r="C64" t="s">
+        <v>202</v>
       </c>
       <c r="D64">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1605</v>
+        <v>9687</v>
       </c>
       <c r="G64" s="2">
-        <v>2048</v>
-      </c>
-      <c r="H64" t="s">
-        <v>193</v>
+        <v>760</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -3757,33 +3537,33 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>1022501</v>
+        <v>1031301</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>284</v>
+      <c r="C65" t="s">
+        <v>243</v>
       </c>
       <c r="D65">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1465</v>
+        <v>4129</v>
       </c>
       <c r="G65" s="2">
-        <v>2304</v>
+        <v>880</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3792,33 +3572,33 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>1022601</v>
+        <v>1031401</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>285</v>
+      <c r="C66" t="s">
+        <v>244</v>
       </c>
       <c r="D66">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1325</v>
+        <v>3652</v>
       </c>
       <c r="G66" s="2">
-        <v>2560</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>195</v>
+        <v>960</v>
+      </c>
+      <c r="H66" t="s">
+        <v>270</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3827,33 +3607,33 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>1022701</v>
+        <v>1031501</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>286</v>
+      <c r="C67" t="s">
+        <v>206</v>
       </c>
       <c r="D67">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1185</v>
+        <v>3176</v>
       </c>
       <c r="G67" s="2">
-        <v>3072</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>196</v>
+        <v>1200</v>
+      </c>
+      <c r="H67" t="s">
+        <v>271</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3862,33 +3642,33 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>1022801</v>
+        <v>1031601</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>287</v>
+      <c r="C68" t="s">
+        <v>207</v>
       </c>
       <c r="D68">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1045</v>
+        <v>2700</v>
       </c>
       <c r="G68" s="2">
-        <v>3072</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>197</v>
+        <v>1920</v>
+      </c>
+      <c r="H68" t="s">
+        <v>272</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3897,33 +3677,33 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>1022901</v>
+        <v>1031701</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>288</v>
+      <c r="C69" t="s">
+        <v>247</v>
       </c>
       <c r="D69">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>905</v>
+        <v>3070</v>
       </c>
       <c r="G69" s="2">
-        <v>3584</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>198</v>
+        <v>2176</v>
+      </c>
+      <c r="H69" t="s">
+        <v>273</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3932,33 +3712,33 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>1023001</v>
+        <v>1031801</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>289</v>
+      <c r="C70" t="s">
+        <v>209</v>
       </c>
       <c r="D70">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>765</v>
+        <v>2510</v>
       </c>
       <c r="G70" s="2">
-        <v>3840</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>199</v>
+        <v>2816</v>
+      </c>
+      <c r="H70" t="s">
+        <v>274</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3967,33 +3747,33 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>1023101</v>
+        <v>1031901</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>290</v>
+      <c r="C71" t="s">
+        <v>213</v>
       </c>
       <c r="D71">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>625</v>
+        <v>1950</v>
       </c>
       <c r="G71" s="2">
-        <v>4608</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>200</v>
+        <v>3328</v>
+      </c>
+      <c r="H71" t="s">
+        <v>275</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -4002,33 +3782,33 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>1023201</v>
+        <v>1032001</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>291</v>
+      <c r="C72" t="s">
+        <v>250</v>
       </c>
       <c r="D72">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>221</v>
+        <v>765</v>
       </c>
       <c r="G72" s="2">
-        <v>5120</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>201</v>
+        <v>3840</v>
+      </c>
+      <c r="H72" t="s">
+        <v>276</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -4037,33 +3817,33 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>1023301</v>
+        <v>1032101</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>292</v>
+      <c r="C73" t="s">
+        <v>251</v>
       </c>
       <c r="D73">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>170</v>
+        <v>625</v>
       </c>
       <c r="G73" s="2">
-        <v>5376</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>202</v>
+        <v>4608</v>
+      </c>
+      <c r="H73" t="s">
+        <v>277</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4072,68 +3852,68 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>1023401</v>
+        <v>1032201</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>293</v>
+      <c r="C74" t="s">
+        <v>252</v>
       </c>
       <c r="D74">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="G74" s="2">
-        <v>7680</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>203</v>
+        <v>5248</v>
+      </c>
+      <c r="H74" t="s">
+        <v>278</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>1023501</v>
+        <v>1032301</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>294</v>
+      <c r="C75" t="s">
+        <v>256</v>
       </c>
       <c r="D75">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
       <c r="F75">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="G75" s="2">
-        <v>10240</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>204</v>
+        <v>8960</v>
+      </c>
+      <c r="H75" t="s">
+        <v>279</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -4142,21 +3922,21 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>1023601</v>
+        <v>1032401</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>295</v>
+      <c r="C76" t="s">
+        <v>220</v>
       </c>
       <c r="D76">
-        <v>266</v>
+        <v>626</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -4167,8 +3947,8 @@
       <c r="G76" s="2">
         <v>12800</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>205</v>
+      <c r="H76" t="s">
+        <v>182</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4177,33 +3957,33 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>1023701</v>
+        <v>1032501</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>296</v>
+      <c r="C77" t="s">
+        <v>284</v>
       </c>
       <c r="D77">
-        <v>287</v>
+        <v>780</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
       <c r="F77">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G77" s="2">
-        <v>15360</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>206</v>
+        <v>17280</v>
+      </c>
+      <c r="H77" t="s">
+        <v>183</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4212,33 +3992,33 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>1023801</v>
+      <c r="A78" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D78">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="E78">
         <v>4</v>
       </c>
       <c r="F78">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G78" s="2">
-        <v>19200</v>
+        <v>23110</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4246,524 +4026,464 @@
       <c r="J78">
         <v>1</v>
       </c>
-      <c r="K78">
-        <v>102</v>
+      <c r="K78" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>1030101</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79">
-        <v>15</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>13180</v>
-      </c>
-      <c r="G79" s="2">
-        <v>6</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>103</v>
+      <c r="A79" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>1030201</v>
+        <v>5010101</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>300</v>
+      <c r="C80" t="s">
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>12704</v>
-      </c>
-      <c r="G80" s="2">
-        <v>8</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>338</v>
+        <v>106494</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>1030301</v>
+        <v>5010102</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>12228</v>
-      </c>
-      <c r="G81" s="2">
-        <v>12</v>
+        <v>45510</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
       </c>
       <c r="H81" t="s">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>1030401</v>
+        <v>5010103</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>302</v>
+      <c r="C82" t="s">
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>11751</v>
-      </c>
-      <c r="G82" s="2">
-        <v>14</v>
+        <v>20227</v>
+      </c>
+      <c r="G82">
+        <v>400</v>
       </c>
       <c r="H82" t="s">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>1030501</v>
+        <v>5010104</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>303</v>
+      <c r="C83" t="s">
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>11275</v>
-      </c>
-      <c r="G83" s="2">
-        <v>18</v>
+        <v>8990</v>
+      </c>
+      <c r="G83">
+        <v>600</v>
       </c>
       <c r="H83" t="s">
-        <v>341</v>
+        <v>27</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>1030601</v>
+        <v>5010105</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>304</v>
+      <c r="C84" t="s">
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>10798</v>
-      </c>
-      <c r="G84" s="2">
-        <v>24</v>
+        <v>2397</v>
+      </c>
+      <c r="G84">
+        <v>800</v>
       </c>
       <c r="H84" t="s">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>1030701</v>
+      <c r="A85" t="s">
+        <v>30</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>10322</v>
-      </c>
-      <c r="G85" s="2">
-        <v>36</v>
+        <v>1598</v>
+      </c>
+      <c r="G85">
+        <v>1000</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>1030801</v>
+      <c r="A86" t="s">
+        <v>33</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>306</v>
+      <c r="C86" t="s">
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>9846</v>
-      </c>
-      <c r="G86" s="2">
-        <v>42</v>
+        <v>1065</v>
+      </c>
+      <c r="G86">
+        <v>1300</v>
       </c>
       <c r="H86" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>1030901</v>
+        <v>5010108</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" t="s">
-        <v>307</v>
+      <c r="C87" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>9369</v>
-      </c>
-      <c r="G87" s="2">
-        <v>56</v>
+        <v>710</v>
+      </c>
+      <c r="G87">
+        <v>1700</v>
       </c>
       <c r="H87" t="s">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>1031001</v>
+        <v>5010109</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>308</v>
+      <c r="C88" t="s">
+        <v>38</v>
       </c>
       <c r="D88">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>8893</v>
-      </c>
-      <c r="G88" s="2">
-        <v>104</v>
+        <v>473</v>
+      </c>
+      <c r="G88">
+        <v>2000</v>
       </c>
       <c r="H88" t="s">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>1031101</v>
+        <v>5010110</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>309</v>
+      <c r="C89" t="s">
+        <v>40</v>
       </c>
       <c r="D89">
+        <v>35</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>315</v>
+      </c>
+      <c r="G89">
+        <v>2333</v>
+      </c>
+      <c r="H89" t="s">
         <v>41</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>8416</v>
-      </c>
-      <c r="G89" s="2">
-        <v>112</v>
-      </c>
-      <c r="H89" t="s">
-        <v>347</v>
-      </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>1031201</v>
+        <v>5010111</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>310</v>
+      <c r="C90" t="s">
+        <v>42</v>
       </c>
       <c r="D90">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>7940</v>
-      </c>
-      <c r="G90" s="2">
-        <v>160</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>348</v>
+        <v>210</v>
+      </c>
+      <c r="G90">
+        <v>6666</v>
+      </c>
+      <c r="H90" t="s">
+        <v>43</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>1031301</v>
+        <v>5010112</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="D91">
         <v>50</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>7464</v>
-      </c>
-      <c r="G91" s="2">
-        <v>208</v>
+        <v>100</v>
+      </c>
+      <c r="G91">
+        <v>8888</v>
       </c>
       <c r="H91" t="s">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>1031401</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D92">
-        <v>55</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>6987</v>
-      </c>
-      <c r="G92" s="2">
-        <v>320</v>
-      </c>
-      <c r="H92" t="s">
-        <v>350</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>103</v>
+      <c r="A92" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>1031501</v>
+        <v>7040101</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>313</v>
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
       </c>
       <c r="D93">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>6511</v>
-      </c>
-      <c r="G93" s="2">
-        <v>480</v>
+        <v>65535</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4772,33 +4492,33 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>1031601</v>
+        <v>7040102</v>
       </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>314</v>
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
       </c>
       <c r="D94">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>6034</v>
-      </c>
-      <c r="G94" s="2">
-        <v>480</v>
+        <v>40959</v>
+      </c>
+      <c r="G94">
+        <v>21</v>
       </c>
       <c r="H94" t="s">
-        <v>352</v>
+        <v>50</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -4807,33 +4527,33 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>1031701</v>
+        <v>7040103</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="D95">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>5558</v>
-      </c>
-      <c r="G95" s="2">
-        <v>640</v>
+        <v>27306</v>
+      </c>
+      <c r="G95">
+        <v>42</v>
       </c>
       <c r="H95" t="s">
-        <v>353</v>
+        <v>52</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -4842,33 +4562,33 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>1031801</v>
+        <v>7040104</v>
       </c>
       <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>316</v>
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
       </c>
       <c r="D96">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>5082</v>
-      </c>
-      <c r="G96" s="2">
-        <v>720</v>
+        <v>18204</v>
+      </c>
+      <c r="G96">
+        <v>84</v>
       </c>
       <c r="H96" t="s">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4877,33 +4597,33 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>1031901</v>
+        <v>7040105</v>
       </c>
       <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>317</v>
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
       </c>
       <c r="D97">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>4605</v>
-      </c>
-      <c r="G97" s="2">
-        <v>800</v>
+        <v>12136</v>
+      </c>
+      <c r="G97">
+        <v>140</v>
       </c>
       <c r="H97" t="s">
-        <v>355</v>
+        <v>56</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4912,33 +4632,33 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>1032001</v>
+        <v>7040201</v>
       </c>
       <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>318</v>
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
       </c>
       <c r="D98">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>4129</v>
-      </c>
-      <c r="G98" s="2">
-        <v>880</v>
+        <v>8091</v>
+      </c>
+      <c r="G98">
+        <v>210</v>
       </c>
       <c r="H98" t="s">
-        <v>356</v>
+        <v>58</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -4947,33 +4667,33 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>1032101</v>
+        <v>7040202</v>
       </c>
       <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>319</v>
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>59</v>
       </c>
       <c r="D99">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>3652</v>
-      </c>
-      <c r="G99" s="2">
-        <v>960</v>
+        <v>5394</v>
+      </c>
+      <c r="G99">
+        <v>280</v>
       </c>
       <c r="H99" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -4982,33 +4702,33 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>1032201</v>
+        <v>7040203</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>320</v>
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
       </c>
       <c r="D100">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>3176</v>
-      </c>
-      <c r="G100" s="2">
-        <v>1200</v>
+        <v>3596</v>
+      </c>
+      <c r="G100">
+        <v>350</v>
       </c>
       <c r="H100" t="s">
-        <v>358</v>
+        <v>62</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -5017,33 +4737,33 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>1032301</v>
+        <v>7040204</v>
       </c>
       <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>321</v>
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
       </c>
       <c r="D101">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>2700</v>
-      </c>
-      <c r="G101" s="2">
-        <v>1920</v>
+        <v>2397</v>
+      </c>
+      <c r="G101">
+        <v>420</v>
       </c>
       <c r="H101" t="s">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -5052,33 +4772,33 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>1032401</v>
+        <v>7040301</v>
       </c>
       <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>322</v>
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>65</v>
       </c>
       <c r="D102">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102">
-        <v>1605</v>
-      </c>
-      <c r="G102" s="2">
-        <v>2048</v>
+        <v>1598</v>
+      </c>
+      <c r="G102">
+        <v>560</v>
       </c>
       <c r="H102" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -5087,33 +4807,33 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>1032501</v>
+        <v>7040302</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>323</v>
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>67</v>
       </c>
       <c r="D103">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="E103">
         <v>2</v>
       </c>
       <c r="F103">
-        <v>1465</v>
-      </c>
-      <c r="G103" s="2">
-        <v>2304</v>
+        <v>1065</v>
+      </c>
+      <c r="G103">
+        <v>700</v>
       </c>
       <c r="H103" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -5122,33 +4842,33 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>1032601</v>
+        <v>7040303</v>
       </c>
       <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>324</v>
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>69</v>
       </c>
       <c r="D104">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>1325</v>
-      </c>
-      <c r="G104" s="2">
-        <v>2560</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>210</v>
+        <v>710</v>
+      </c>
+      <c r="G104">
+        <v>840</v>
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -5157,33 +4877,33 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>1032701</v>
+        <v>7040304</v>
       </c>
       <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>325</v>
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>71</v>
       </c>
       <c r="D105">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105">
-        <v>1185</v>
-      </c>
-      <c r="G105" s="2">
-        <v>3072</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>211</v>
+        <v>473</v>
+      </c>
+      <c r="G105">
+        <v>980</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -5192,633 +4912,574 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>1032801</v>
+        <v>7040401</v>
       </c>
       <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>326</v>
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>73</v>
       </c>
       <c r="D106">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>1045</v>
-      </c>
-      <c r="G106" s="2">
-        <v>3072</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>212</v>
+        <v>315</v>
+      </c>
+      <c r="G106">
+        <v>1400</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>1032901</v>
+        <v>7040402</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>327</v>
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
       </c>
       <c r="D107">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F107">
-        <v>905</v>
-      </c>
-      <c r="G107" s="2">
-        <v>3584</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="G107">
+        <v>2800</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>1033001</v>
+        <v>7040501</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>328</v>
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
       </c>
       <c r="D108">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F108">
-        <v>765</v>
-      </c>
-      <c r="G108" s="2">
-        <v>3840</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>214</v>
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>3500</v>
+      </c>
+      <c r="H108" t="s">
+        <v>78</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109">
-        <v>1033101</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D109">
-        <v>279</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109">
-        <v>625</v>
-      </c>
-      <c r="G109" s="2">
-        <v>4608</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>103</v>
+      <c r="A109" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>1033201</v>
+        <v>1104</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>330</v>
+      <c r="C110" t="s">
+        <v>80</v>
       </c>
       <c r="D110">
-        <v>307</v>
+        <v>1500</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>221</v>
-      </c>
-      <c r="G110" s="2">
-        <v>5120</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>216</v>
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>22</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>1033301</v>
+        <v>2104</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>331</v>
+      <c r="C111" t="s">
+        <v>81</v>
       </c>
       <c r="D111">
-        <v>338</v>
+        <v>1500</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>170</v>
-      </c>
-      <c r="G111" s="2">
-        <v>5376</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>22</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112">
-        <v>1033401</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D112">
-        <v>372</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="F112">
-        <v>148</v>
-      </c>
-      <c r="G112" s="2">
-        <v>7680</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>103</v>
+      <c r="A112" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>1033501</v>
+        <v>3000001</v>
       </c>
       <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>333</v>
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>83</v>
       </c>
       <c r="D113">
-        <v>409</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>121</v>
-      </c>
-      <c r="G113" s="2">
-        <v>10240</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>219</v>
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1011</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>1</v>
       </c>
       <c r="K113">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>1033601</v>
+        <v>3000002</v>
       </c>
       <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>334</v>
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>84</v>
       </c>
       <c r="D114">
-        <v>450</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>99</v>
-      </c>
-      <c r="G114" s="2">
-        <v>12800</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>220</v>
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1021</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>1</v>
       </c>
       <c r="K114">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>1033701</v>
+        <v>3000003</v>
       </c>
       <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>335</v>
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>85</v>
       </c>
       <c r="D115">
-        <v>495</v>
+        <v>5</v>
       </c>
       <c r="E115">
         <v>4</v>
       </c>
       <c r="F115">
-        <v>45</v>
-      </c>
-      <c r="G115" s="2">
-        <v>15360</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>221</v>
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1031</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>1</v>
       </c>
       <c r="K115">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>1033801</v>
+        <v>3000004</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>336</v>
+        <v>86</v>
       </c>
       <c r="D116">
-        <v>545</v>
+        <v>5</v>
       </c>
       <c r="E116">
         <v>4</v>
       </c>
       <c r="F116">
-        <v>35</v>
-      </c>
-      <c r="G116" s="2">
-        <v>19200</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>222</v>
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>2011</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="K116">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>23</v>
+      <c r="A117">
+        <v>3000005</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>2021</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>5010101</v>
+        <v>3000006</v>
       </c>
       <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>106494</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>2031</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>5010102</v>
+        <v>3000007</v>
       </c>
       <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F119">
-        <v>45510</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>100</v>
-      </c>
-      <c r="H119" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>3011</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>5010103</v>
+        <v>3000008</v>
       </c>
       <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>20227</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>400</v>
-      </c>
-      <c r="H120" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>3021</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>5010104</v>
+        <v>3000009</v>
       </c>
       <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>3031</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>6010101</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123">
+        <v>45</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>32768</v>
+      </c>
+      <c r="G123">
         <v>10</v>
       </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>8990</v>
-      </c>
-      <c r="G121">
-        <v>600</v>
-      </c>
-      <c r="H121" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122">
-        <v>5010105</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="H123" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>6010102</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124">
         <v>28</v>
       </c>
-      <c r="D122">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>32768</v>
+      </c>
+      <c r="G124">
         <v>10</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>2397</v>
-      </c>
-      <c r="G122">
-        <v>800</v>
-      </c>
-      <c r="H122" t="s">
-        <v>29</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>30</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>31</v>
-      </c>
-      <c r="D123">
-        <v>10</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>1598</v>
-      </c>
-      <c r="G123">
-        <v>1000</v>
-      </c>
-      <c r="H123" t="s">
-        <v>32</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>33</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124">
-        <v>20</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>1065</v>
-      </c>
-      <c r="G124">
-        <v>1300</v>
-      </c>
-      <c r="H124" t="s">
-        <v>35</v>
+      <c r="H124" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5827,33 +5488,33 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>5010108</v>
+        <v>6010201</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D125">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>710</v>
+        <v>20480</v>
       </c>
       <c r="G125">
-        <v>1700</v>
-      </c>
-      <c r="H125" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5862,1786 +5523,575 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>5010109</v>
+        <v>6010202</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126" t="s">
-        <v>38</v>
+      <c r="C126" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D126">
+        <v>36</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>20480</v>
+      </c>
+      <c r="G126">
         <v>30</v>
       </c>
-      <c r="E126">
-        <v>3</v>
-      </c>
-      <c r="F126">
-        <v>473</v>
-      </c>
-      <c r="G126">
-        <v>2000</v>
-      </c>
-      <c r="H126" t="s">
-        <v>39</v>
+      <c r="H126" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>5010110</v>
+        <v>6010301</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" t="s">
-        <v>40</v>
+      <c r="C127" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D127">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>315</v>
+        <v>27306</v>
       </c>
       <c r="G127">
-        <v>2333</v>
-      </c>
-      <c r="H127" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>5010111</v>
+        <v>6010401</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>18204</v>
+      </c>
+      <c r="G128">
+        <v>120</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>6010501</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129">
+        <v>44</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>12136</v>
+      </c>
+      <c r="G129">
+        <v>200</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>6010601</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130">
         <v>42</v>
       </c>
-      <c r="D128">
-        <v>40</v>
-      </c>
-      <c r="E128">
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>8091</v>
+      </c>
+      <c r="G130">
+        <v>300</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>6010701</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131">
+        <v>13</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>5394</v>
+      </c>
+      <c r="G131">
+        <v>400</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>6010801</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132">
+        <v>7</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>3596</v>
+      </c>
+      <c r="G132">
+        <v>500</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>6010901</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>2397</v>
+      </c>
+      <c r="G133">
+        <v>600</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>6011001</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1598</v>
+      </c>
+      <c r="G134">
+        <v>800</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>6011101</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135">
+        <v>65</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>1065</v>
+      </c>
+      <c r="G135">
+        <v>1000</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>6011201</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136">
+        <v>35</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>710</v>
+      </c>
+      <c r="G136">
+        <v>1200</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>6011301</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>473</v>
+      </c>
+      <c r="G137">
+        <v>1400</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>6011401</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D138">
         <v>3</v>
       </c>
-      <c r="F128">
-        <v>210</v>
-      </c>
-      <c r="G128">
-        <v>6666</v>
-      </c>
-      <c r="H128" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="K128">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129">
-        <v>5010112</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>44</v>
-      </c>
-      <c r="D129">
-        <v>50</v>
-      </c>
-      <c r="E129">
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>945</v>
+      </c>
+      <c r="G138">
+        <v>2000</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>6011501</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>630</v>
+      </c>
+      <c r="G139">
+        <v>4000</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>6011601</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140">
+        <v>150</v>
+      </c>
+      <c r="E140">
         <v>4</v>
       </c>
-      <c r="F129">
-        <v>100</v>
-      </c>
-      <c r="G129">
-        <v>8888</v>
-      </c>
-      <c r="H129" t="s">
-        <v>45</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131">
-        <v>7040101</v>
-      </c>
-      <c r="B131">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>47</v>
-      </c>
-      <c r="D131">
-        <v>50</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>65535</v>
-      </c>
-      <c r="G131">
-        <v>7</v>
-      </c>
-      <c r="H131" t="s">
-        <v>48</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132">
-        <v>7040102</v>
-      </c>
-      <c r="B132">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132">
+      <c r="F140">
+        <v>300</v>
+      </c>
+      <c r="G140">
+        <v>5000</v>
+      </c>
+      <c r="H140" t="s">
+        <v>128</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142">
         <v>35</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>40959</v>
-      </c>
-      <c r="G132">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s">
-        <v>50</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133">
-        <v>7040103</v>
-      </c>
-      <c r="B133">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133">
-        <v>40</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>27306</v>
-      </c>
-      <c r="G133">
-        <v>42</v>
-      </c>
-      <c r="H133" t="s">
-        <v>52</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A134">
-        <v>7040104</v>
-      </c>
-      <c r="B134">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
-        <v>53</v>
-      </c>
-      <c r="D134">
-        <v>120</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>18204</v>
-      </c>
-      <c r="G134">
-        <v>84</v>
-      </c>
-      <c r="H134" t="s">
-        <v>54</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135">
-        <v>7040105</v>
-      </c>
-      <c r="B135">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D135">
-        <v>55</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>12136</v>
-      </c>
-      <c r="G135">
-        <v>140</v>
-      </c>
-      <c r="H135" t="s">
-        <v>56</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136">
-        <v>7040201</v>
-      </c>
-      <c r="B136">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>57</v>
-      </c>
-      <c r="D136">
-        <v>125</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>8091</v>
-      </c>
-      <c r="G136">
-        <v>210</v>
-      </c>
-      <c r="H136" t="s">
-        <v>58</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137">
-        <v>7040202</v>
-      </c>
-      <c r="B137">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>59</v>
-      </c>
-      <c r="D137">
-        <v>60</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>5394</v>
-      </c>
-      <c r="G137">
-        <v>280</v>
-      </c>
-      <c r="H137" t="s">
-        <v>60</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138">
-        <v>7040203</v>
-      </c>
-      <c r="B138">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
-        <v>61</v>
-      </c>
-      <c r="D138">
-        <v>35</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>3596</v>
-      </c>
-      <c r="G138">
-        <v>350</v>
-      </c>
-      <c r="H138" t="s">
-        <v>62</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139">
-        <v>7040204</v>
-      </c>
-      <c r="B139">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>63</v>
-      </c>
-      <c r="D139">
-        <v>80</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>2397</v>
-      </c>
-      <c r="G139">
-        <v>420</v>
-      </c>
-      <c r="H139" t="s">
-        <v>64</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140">
-        <v>7040301</v>
-      </c>
-      <c r="B140">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
-        <v>65</v>
-      </c>
-      <c r="D140">
-        <v>95</v>
-      </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-      <c r="F140">
-        <v>1598</v>
-      </c>
-      <c r="G140">
-        <v>560</v>
-      </c>
-      <c r="H140" t="s">
-        <v>66</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141">
-        <v>7040302</v>
-      </c>
-      <c r="B141">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>67</v>
-      </c>
-      <c r="D141">
-        <v>75</v>
-      </c>
-      <c r="E141">
-        <v>2</v>
-      </c>
-      <c r="F141">
-        <v>1065</v>
-      </c>
-      <c r="G141">
-        <v>700</v>
-      </c>
-      <c r="H141" t="s">
-        <v>68</v>
-      </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A142">
-        <v>7040303</v>
-      </c>
-      <c r="B142">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>69</v>
-      </c>
-      <c r="D142">
-        <v>115</v>
-      </c>
       <c r="E142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>710</v>
+        <v>37000</v>
       </c>
       <c r="G142">
-        <v>840</v>
-      </c>
-      <c r="H142" t="s">
-        <v>70</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142">
+        <v>215</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A143">
-        <v>7040304</v>
-      </c>
-      <c r="B143">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D143">
-        <v>70</v>
-      </c>
-      <c r="E143">
-        <v>2</v>
-      </c>
-      <c r="F143">
-        <v>473</v>
-      </c>
-      <c r="G143">
-        <v>980</v>
-      </c>
-      <c r="H143" t="s">
-        <v>72</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144">
-        <v>7040401</v>
-      </c>
-      <c r="B144">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>73</v>
-      </c>
-      <c r="D144">
-        <v>110</v>
-      </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
-      <c r="F144">
-        <v>315</v>
-      </c>
-      <c r="G144">
-        <v>1400</v>
-      </c>
-      <c r="H144" t="s">
-        <v>74</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>1</v>
-      </c>
-      <c r="K144">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145">
-        <v>7040402</v>
-      </c>
-      <c r="B145">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>75</v>
-      </c>
-      <c r="D145">
-        <v>20</v>
-      </c>
-      <c r="E145">
-        <v>4</v>
-      </c>
-      <c r="F145">
-        <v>210</v>
-      </c>
-      <c r="G145">
-        <v>2800</v>
-      </c>
-      <c r="H145" t="s">
-        <v>76</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>1</v>
-      </c>
-      <c r="K145">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146">
-        <v>7040501</v>
-      </c>
-      <c r="B146">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146">
-        <v>160</v>
-      </c>
-      <c r="E146">
-        <v>4</v>
-      </c>
-      <c r="F146">
-        <v>100</v>
-      </c>
-      <c r="G146">
-        <v>3500</v>
-      </c>
-      <c r="H146" t="s">
-        <v>78</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>1</v>
-      </c>
-      <c r="K146">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148">
-        <v>1104</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148">
-        <v>1500</v>
-      </c>
-      <c r="E148">
-        <v>4</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>22</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A149">
-        <v>2104</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>81</v>
-      </c>
-      <c r="D149">
-        <v>1500</v>
-      </c>
-      <c r="E149">
-        <v>4</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149" t="s">
-        <v>22</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A151">
-        <v>3000001</v>
-      </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>83</v>
-      </c>
-      <c r="D151">
-        <v>5</v>
-      </c>
-      <c r="E151">
-        <v>4</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>1011</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>1</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A152">
-        <v>3000002</v>
-      </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>84</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-      <c r="E152">
-        <v>4</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>1021</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>1</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A153">
-        <v>3000003</v>
-      </c>
-      <c r="B153">
-        <v>2</v>
-      </c>
-      <c r="C153" t="s">
-        <v>85</v>
-      </c>
-      <c r="D153">
-        <v>5</v>
-      </c>
-      <c r="E153">
-        <v>4</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>1031</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>1</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A154">
-        <v>3000004</v>
-      </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-      <c r="E154">
-        <v>4</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>2011</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>1</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A155">
-        <v>3000005</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-      <c r="E155">
-        <v>4</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>2021</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>1</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A156">
-        <v>3000006</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156">
-        <v>4</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>2031</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>1</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A157">
-        <v>3000007</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-      <c r="E157">
-        <v>4</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>3011</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>1</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A158">
-        <v>3000008</v>
-      </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-      <c r="E158">
-        <v>4</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>3021</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>1</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A159">
-        <v>3000009</v>
-      </c>
-      <c r="B159">
-        <v>2</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159">
-        <v>4</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>3031</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>1</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A161">
-        <v>6010101</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D161">
-        <v>45</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>32768</v>
-      </c>
-      <c r="G161">
-        <v>10</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A162">
-        <v>6010102</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D162">
-        <v>28</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>32768</v>
-      </c>
-      <c r="G162">
-        <v>10</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A163">
-        <v>6010201</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D163">
-        <v>22</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>20480</v>
-      </c>
-      <c r="G163">
-        <v>30</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A164">
-        <v>6010202</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164">
-        <v>36</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>20480</v>
-      </c>
-      <c r="G164">
-        <v>30</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A165">
-        <v>6010301</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D165">
-        <v>21</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>27306</v>
-      </c>
-      <c r="G165">
-        <v>60</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A166">
-        <v>6010401</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D166">
-        <v>4</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>18204</v>
-      </c>
-      <c r="G166">
-        <v>120</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A167">
-        <v>6010501</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167">
-        <v>44</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>12136</v>
-      </c>
-      <c r="G167">
-        <v>200</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A168">
-        <v>6010601</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D168">
-        <v>42</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168">
-        <v>8091</v>
-      </c>
-      <c r="G168">
-        <v>300</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A169">
-        <v>6010701</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D169">
-        <v>13</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169">
-        <v>5394</v>
-      </c>
-      <c r="G169">
-        <v>400</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A170">
-        <v>6010801</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D170">
-        <v>7</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>3596</v>
-      </c>
-      <c r="G170">
-        <v>500</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A171">
-        <v>6010901</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D171">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>2397</v>
-      </c>
-      <c r="G171">
-        <v>600</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A172">
-        <v>6011001</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D172">
-        <v>23</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>1598</v>
-      </c>
-      <c r="G172">
-        <v>800</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A173">
-        <v>6011101</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D173">
-        <v>65</v>
-      </c>
-      <c r="E173">
-        <v>2</v>
-      </c>
-      <c r="F173">
-        <v>1065</v>
-      </c>
-      <c r="G173">
-        <v>1000</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A174">
-        <v>6011201</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D174">
-        <v>35</v>
-      </c>
-      <c r="E174">
-        <v>2</v>
-      </c>
-      <c r="F174">
-        <v>710</v>
-      </c>
-      <c r="G174">
-        <v>1200</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A175">
-        <v>6011301</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D175">
-        <v>19</v>
-      </c>
-      <c r="E175">
-        <v>2</v>
-      </c>
-      <c r="F175">
-        <v>473</v>
-      </c>
-      <c r="G175">
-        <v>1400</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A176">
-        <v>6011401</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D176">
-        <v>3</v>
-      </c>
-      <c r="E176">
-        <v>3</v>
-      </c>
-      <c r="F176">
-        <v>945</v>
-      </c>
-      <c r="G176">
-        <v>2000</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A177">
-        <v>6011501</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D177">
-        <v>10</v>
-      </c>
-      <c r="E177">
-        <v>3</v>
-      </c>
-      <c r="F177">
-        <v>630</v>
-      </c>
-      <c r="G177">
-        <v>4000</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A178">
-        <v>6011601</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D178">
-        <v>150</v>
-      </c>
-      <c r="E178">
-        <v>4</v>
-      </c>
-      <c r="F178">
-        <v>300</v>
-      </c>
-      <c r="G178">
-        <v>5000</v>
-      </c>
-      <c r="H178" t="s">
-        <v>128</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A179" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A180" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D180">
-        <v>35</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>37000</v>
-      </c>
-      <c r="G180">
-        <v>215</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I180" s="1">
-        <v>0</v>
-      </c>
-      <c r="J180" s="1">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
